--- a/indir/new_adminduk_disduk.xlsx
+++ b/indir/new_adminduk_disduk.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new_script\indir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new_script\new_script\indir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E0B6DD-69D0-4DDD-89E7-1073969FFBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2D7A57E-FA00-4186-8B27-F79A48BF455A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="1-300" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,24 +33,948 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>ktp</t>
   </si>
   <si>
-    <t>1204040202730007</t>
-  </si>
-  <si>
-    <t>1116072004010004</t>
-  </si>
-  <si>
-    <t>1203140706960001</t>
+    <t>1223040501960003</t>
+  </si>
+  <si>
+    <t>1403131108780002</t>
+  </si>
+  <si>
+    <t>1213010793870007</t>
+  </si>
+  <si>
+    <t>1471010901190008</t>
+  </si>
+  <si>
+    <t>1471040510930001</t>
+  </si>
+  <si>
+    <t>1303031306940003</t>
+  </si>
+  <si>
+    <t>1407081712920003</t>
+  </si>
+  <si>
+    <t>0069180504011188</t>
+  </si>
+  <si>
+    <t>1407244405820011</t>
+  </si>
+  <si>
+    <t>1220051111980000</t>
+  </si>
+  <si>
+    <t>1408020808976001</t>
+  </si>
+  <si>
+    <t>1409070411960002</t>
+  </si>
+  <si>
+    <t>1471110504960021</t>
+  </si>
+  <si>
+    <t>1207325518800002</t>
+  </si>
+  <si>
+    <t>1404506630283004</t>
+  </si>
+  <si>
+    <t>1207314206820002</t>
+  </si>
+  <si>
+    <t>1401201210720005</t>
+  </si>
+  <si>
+    <t>1409051005709860</t>
+  </si>
+  <si>
+    <t>1401101205930001</t>
+  </si>
+  <si>
+    <t>1001165503730002</t>
+  </si>
+  <si>
+    <t>1471070305800001</t>
+  </si>
+  <si>
+    <t>1204030809730001</t>
+  </si>
+  <si>
+    <t>1409085205800004</t>
+  </si>
+  <si>
+    <t>1221023009000001</t>
+  </si>
+  <si>
+    <t>1409106410820004</t>
+  </si>
+  <si>
+    <t>1401172705950003</t>
+  </si>
+  <si>
+    <t>1205201205990003</t>
+  </si>
+  <si>
+    <t>3317014908030001</t>
+  </si>
+  <si>
+    <t>1201070902060003</t>
+  </si>
+  <si>
+    <t>1408044205970001</t>
+  </si>
+  <si>
+    <t>1471054406000001</t>
+  </si>
+  <si>
+    <t>3203320810820001</t>
+  </si>
+  <si>
+    <t>1404041412040002</t>
+  </si>
+  <si>
+    <t>0044565620111200</t>
+  </si>
+  <si>
+    <t>1417702011010082</t>
+  </si>
+  <si>
+    <t>1471045201970021</t>
+  </si>
+  <si>
+    <t>1306021708000004</t>
+  </si>
+  <si>
+    <t>1401183006930002</t>
+  </si>
+  <si>
+    <t>1471016106930000</t>
+  </si>
+  <si>
+    <t>1403137009930750</t>
+  </si>
+  <si>
+    <t>1401056101970000</t>
+  </si>
+  <si>
+    <t>1471125909890000</t>
+  </si>
+  <si>
+    <t>1471125403960000</t>
+  </si>
+  <si>
+    <t>1403082310944990</t>
+  </si>
+  <si>
+    <t>1271173110310000</t>
+  </si>
+  <si>
+    <t>1471011908970000</t>
+  </si>
+  <si>
+    <t>1305033006980003</t>
+  </si>
+  <si>
+    <t>1403041409880055</t>
+  </si>
+  <si>
+    <t>1207221203910004</t>
+  </si>
+  <si>
+    <t>1222031005980011</t>
+  </si>
+  <si>
+    <t>1405020411020003</t>
+  </si>
+  <si>
+    <t>1408043101030006</t>
+  </si>
+  <si>
+    <t>1404064306030002</t>
+  </si>
+  <si>
+    <t>1214252606910001</t>
+  </si>
+  <si>
+    <t>1406001210102000</t>
+  </si>
+  <si>
+    <t>4615454554545454</t>
+  </si>
+  <si>
+    <t>2315615315341545</t>
+  </si>
+  <si>
+    <t>1602122408000002</t>
+  </si>
+  <si>
+    <t>1403091303930002</t>
+  </si>
+  <si>
+    <t>1205181604010001</t>
+  </si>
+  <si>
+    <t>1218140101030001</t>
+  </si>
+  <si>
+    <t>1205081611020002</t>
+  </si>
+  <si>
+    <t>1506062309000001</t>
+  </si>
+  <si>
+    <t>1211130901030001</t>
+  </si>
+  <si>
+    <t>1277011801010005</t>
+  </si>
+  <si>
+    <t>1302070210020001</t>
+  </si>
+  <si>
+    <t>1471021101720001</t>
+  </si>
+  <si>
+    <t>1307090101900001</t>
+  </si>
+  <si>
+    <t>1202091606890008</t>
+  </si>
+  <si>
+    <t>1102021101650001</t>
+  </si>
+  <si>
+    <t>1205120209030003</t>
+  </si>
+  <si>
+    <t>2102043112790012</t>
+  </si>
+  <si>
+    <t>3203051009750004</t>
+  </si>
+  <si>
+    <t>1802181208960006</t>
+  </si>
+  <si>
+    <t>1609091109020001</t>
+  </si>
+  <si>
+    <t>1402030303010000</t>
+  </si>
+  <si>
+    <t>1307102811750001</t>
+  </si>
+  <si>
+    <t>1471060704840001</t>
+  </si>
+  <si>
+    <t>1371112112970005</t>
+  </si>
+  <si>
+    <t>1307101508960001</t>
+  </si>
+  <si>
+    <t>1306070707640003</t>
+  </si>
+  <si>
+    <t>3507131207650002</t>
+  </si>
+  <si>
+    <t>1402020909990020</t>
+  </si>
+  <si>
+    <t>1401060208930010</t>
+  </si>
+  <si>
+    <t>1408042705980010</t>
+  </si>
+  <si>
+    <t>1408042810000001</t>
+  </si>
+  <si>
+    <t>1403093012190004</t>
+  </si>
+  <si>
+    <t>1504021211020003</t>
+  </si>
+  <si>
+    <t>1222042207000003</t>
+  </si>
+  <si>
+    <t>1309010606960002</t>
+  </si>
+  <si>
+    <t>1506020403990009</t>
+  </si>
+  <si>
+    <t>1275051012990003</t>
+  </si>
+  <si>
+    <t>1204220108820001</t>
+  </si>
+  <si>
+    <t>1218150811990003</t>
+  </si>
+  <si>
+    <t>1306100909950001</t>
+  </si>
+  <si>
+    <t>1506062606020001</t>
+  </si>
+  <si>
+    <t>1506012505930001</t>
+  </si>
+  <si>
+    <t>1408041806990001</t>
+  </si>
+  <si>
+    <t>1408041508670004</t>
+  </si>
+  <si>
+    <t>1506013008020001</t>
+  </si>
+  <si>
+    <t>1506011405870004</t>
+  </si>
+  <si>
+    <t>1506010506920001</t>
+  </si>
+  <si>
+    <t>1275043012950002</t>
+  </si>
+  <si>
+    <t>1506061901040001</t>
+  </si>
+  <si>
+    <t>1506110407970002</t>
+  </si>
+  <si>
+    <t>1212071305940002</t>
+  </si>
+  <si>
+    <t>1506011308820003</t>
+  </si>
+  <si>
+    <t>1274050311960003</t>
+  </si>
+  <si>
+    <t>1408040102910001</t>
+  </si>
+  <si>
+    <t>1506010111810002</t>
+  </si>
+  <si>
+    <t>1402060908010006</t>
+  </si>
+  <si>
+    <t>1506060312950001</t>
+  </si>
+  <si>
+    <t>1506061105810002</t>
+  </si>
+  <si>
+    <t>1603211807030001</t>
+  </si>
+  <si>
+    <t>1506011009980001</t>
+  </si>
+  <si>
+    <t>1506011003020002</t>
+  </si>
+  <si>
+    <t>1408042011980002</t>
+  </si>
+  <si>
+    <t>1408062606950002</t>
+  </si>
+  <si>
+    <t>1506060210710001</t>
+  </si>
+  <si>
+    <t>1506063012020001</t>
+  </si>
+  <si>
+    <t>1506013108990002</t>
+  </si>
+  <si>
+    <t>1506030601950001</t>
+  </si>
+  <si>
+    <t>1375012307920003</t>
+  </si>
+  <si>
+    <t>1271062704840009</t>
+  </si>
+  <si>
+    <t>3206011806970004</t>
+  </si>
+  <si>
+    <t>1506061111970005</t>
+  </si>
+  <si>
+    <t>1506061612010001</t>
+  </si>
+  <si>
+    <t>1506040308860001</t>
+  </si>
+  <si>
+    <t>1214082504890002</t>
+  </si>
+  <si>
+    <t>1401091305980002</t>
+  </si>
+  <si>
+    <t>1308184109980001</t>
+  </si>
+  <si>
+    <t>1401075302960003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 140707100396000</t>
+  </si>
+  <si>
+    <t>1307051611970001</t>
+  </si>
+  <si>
+    <t>1407031612980001</t>
+  </si>
+  <si>
+    <t>1371072906750005</t>
+  </si>
+  <si>
+    <t>1407024208930002</t>
+  </si>
+  <si>
+    <t>1312050508860005</t>
+  </si>
+  <si>
+    <t>1409082802900006</t>
+  </si>
+  <si>
+    <t>7271020210010004</t>
+  </si>
+  <si>
+    <t>1401066211950006</t>
+  </si>
+  <si>
+    <t>1401205201980001</t>
+  </si>
+  <si>
+    <t>1301116304970001</t>
+  </si>
+  <si>
+    <t>1471101706780066</t>
+  </si>
+  <si>
+    <t>1401122106000005</t>
+  </si>
+  <si>
+    <t>1209140610692000</t>
+  </si>
+  <si>
+    <t>1401120712760000</t>
+  </si>
+  <si>
+    <t>1401122307800000</t>
+  </si>
+  <si>
+    <t>1571032306940060</t>
+  </si>
+  <si>
+    <t>1606092910980004</t>
+  </si>
+  <si>
+    <t>1222031310960007</t>
+  </si>
+  <si>
+    <t>Demson Manullang</t>
+  </si>
+  <si>
+    <t>1271173001000002</t>
+  </si>
+  <si>
+    <t>1223101230496000</t>
+  </si>
+  <si>
+    <t>1136062802000001</t>
+  </si>
+  <si>
+    <t>1471070204790022</t>
+  </si>
+  <si>
+    <t>1471033112770001</t>
+  </si>
+  <si>
+    <t>1408041705960001</t>
+  </si>
+  <si>
+    <t>1234567895678652</t>
+  </si>
+  <si>
+    <t>1405066603820004</t>
+  </si>
+  <si>
+    <t>1609010301030003</t>
+  </si>
+  <si>
+    <t>1408118204020001</t>
+  </si>
+  <si>
+    <t>1216081888940001</t>
+  </si>
+  <si>
+    <t>1605080605970001</t>
+  </si>
+  <si>
+    <t>1605080107030003</t>
+  </si>
+  <si>
+    <t>1602143110010001</t>
+  </si>
+  <si>
+    <t>1401124808870005</t>
+  </si>
+  <si>
+    <t>1110026409840001</t>
+  </si>
+  <si>
+    <t>3327021902800007</t>
+  </si>
+  <si>
+    <t>1405060504150008</t>
+  </si>
+  <si>
+    <t>1214091408190004</t>
+  </si>
+  <si>
+    <t>1405031802200003</t>
+  </si>
+  <si>
+    <t>1405040109100647</t>
+  </si>
+  <si>
+    <t>1405041829160008</t>
+  </si>
+  <si>
+    <t>1503020511010003</t>
+  </si>
+  <si>
+    <t>1208111206000003</t>
+  </si>
+  <si>
+    <t>1216151109970003</t>
+  </si>
+  <si>
+    <t>1212012606990001</t>
+  </si>
+  <si>
+    <t>6271031801950007</t>
+  </si>
+  <si>
+    <t>1471111110189063</t>
+  </si>
+  <si>
+    <t>1201061207930001</t>
+  </si>
+  <si>
+    <t>1272052105950001</t>
+  </si>
+  <si>
+    <t>1802061504110008</t>
+  </si>
+  <si>
+    <t>3217150811990001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 121403280510001</t>
+  </si>
+  <si>
+    <t>1205072109010009</t>
+  </si>
+  <si>
+    <t>1205120709920001</t>
+  </si>
+  <si>
+    <t>1219021109010005</t>
+  </si>
+  <si>
+    <t>1401060509660004</t>
+  </si>
+  <si>
+    <t>1401102103980000</t>
+  </si>
+  <si>
+    <t>1205010506030000</t>
+  </si>
+  <si>
+    <t>1207331006790000</t>
+  </si>
+  <si>
+    <t>1207020302980000</t>
+  </si>
+  <si>
+    <t>1219030506750001</t>
+  </si>
+  <si>
+    <t>1401201604030001</t>
+  </si>
+  <si>
+    <t>1408101006800006</t>
+  </si>
+  <si>
+    <t>1403133004020002</t>
+  </si>
+  <si>
+    <t>1206121844840001</t>
+  </si>
+  <si>
+    <t>1208094112960003</t>
+  </si>
+  <si>
+    <t>1210072802900003</t>
+  </si>
+  <si>
+    <t>7305071707850008</t>
+  </si>
+  <si>
+    <t>3404121313128800</t>
+  </si>
+  <si>
+    <t>1205140313000003</t>
+  </si>
+  <si>
+    <t>1207210506010005</t>
+  </si>
+  <si>
+    <t>1209102202930003</t>
+  </si>
+  <si>
+    <t>1405010812020004</t>
+  </si>
+  <si>
+    <t>1471108303730121</t>
+  </si>
+  <si>
+    <t>1405035307890003</t>
+  </si>
+  <si>
+    <t>1406102403040001</t>
+  </si>
+  <si>
+    <t>1471110107980025</t>
+  </si>
+  <si>
+    <t>1208212003020002</t>
+  </si>
+  <si>
+    <t>1471026606000001</t>
+  </si>
+  <si>
+    <t>1304061406810001</t>
+  </si>
+  <si>
+    <t>1205101901920001</t>
+  </si>
+  <si>
+    <t>1204110212980001</t>
+  </si>
+  <si>
+    <t>1406130102910001</t>
+  </si>
+  <si>
+    <t>1471100703890042</t>
+  </si>
+  <si>
+    <t>1277030108770002</t>
+  </si>
+  <si>
+    <t>1404161312040001</t>
+  </si>
+  <si>
+    <t>6108010406940002</t>
+  </si>
+  <si>
+    <t>1404122112940002</t>
+  </si>
+  <si>
+    <t>6171041007880012</t>
+  </si>
+  <si>
+    <t>1471111408020022</t>
+  </si>
+  <si>
+    <t>1605081108010001</t>
+  </si>
+  <si>
+    <t>1223062608990001</t>
+  </si>
+  <si>
+    <t>1208232302870002</t>
+  </si>
+  <si>
+    <t>1471061102190005</t>
+  </si>
+  <si>
+    <t>7302041412030002</t>
+  </si>
+  <si>
+    <t>7371073105970001</t>
+  </si>
+  <si>
+    <t>3309060502990002</t>
+  </si>
+  <si>
+    <t>7371101702920003</t>
+  </si>
+  <si>
+    <t>1405021209020003</t>
+  </si>
+  <si>
+    <t>6409011603790003</t>
+  </si>
+  <si>
+    <t>5204252702990001</t>
+  </si>
+  <si>
+    <t>1202091420000002</t>
+  </si>
+  <si>
+    <t>1215072707010001</t>
+  </si>
+  <si>
+    <t>1220072705000002</t>
+  </si>
+  <si>
+    <t>1202052310920001</t>
+  </si>
+  <si>
+    <t>1208231611970008</t>
+  </si>
+  <si>
+    <t>1216032505980002</t>
+  </si>
+  <si>
+    <t>1405022202790009</t>
+  </si>
+  <si>
+    <t>1222032901970001</t>
+  </si>
+  <si>
+    <t>1223072210890001</t>
+  </si>
+  <si>
+    <t>1273013003060001</t>
+  </si>
+  <si>
+    <t>1208120107960014</t>
+  </si>
+  <si>
+    <t>1212231208930001</t>
+  </si>
+  <si>
+    <t>1406151411980003</t>
+  </si>
+  <si>
+    <t>1219042412040007</t>
+  </si>
+  <si>
+    <t>6111022211940001</t>
+  </si>
+  <si>
+    <t>1208291404930001</t>
+  </si>
+  <si>
+    <t>1209201110020003</t>
+  </si>
+  <si>
+    <t>1406136908960001</t>
+  </si>
+  <si>
+    <t>1401126802950001</t>
+  </si>
+  <si>
+    <t>1303066712960001</t>
+  </si>
+  <si>
+    <t>1207191611920001</t>
+  </si>
+  <si>
+    <t>1225041410050001</t>
+  </si>
+  <si>
+    <t>1405030901940004</t>
+  </si>
+  <si>
+    <t>1405060809810003</t>
+  </si>
+  <si>
+    <t>1271090101710001</t>
+  </si>
+  <si>
+    <t>1222030350600002</t>
+  </si>
+  <si>
+    <t>1403046707924180</t>
+  </si>
+  <si>
+    <t>1205191002940001</t>
+  </si>
+  <si>
+    <t>1207281001010002</t>
+  </si>
+  <si>
+    <t>1403042105014127</t>
+  </si>
+  <si>
+    <t>2171031708509011</t>
+  </si>
+  <si>
+    <t>1401082002890002</t>
+  </si>
+  <si>
+    <t>1214091512930001</t>
+  </si>
+  <si>
+    <t>1401171112980001</t>
+  </si>
+  <si>
+    <t>1207211711970000</t>
+  </si>
+  <si>
+    <t>3174190507680016</t>
+  </si>
+  <si>
+    <t>1406012303920007</t>
+  </si>
+  <si>
+    <t>1409082207990005</t>
+  </si>
+  <si>
+    <t>1224011207190001</t>
+  </si>
+  <si>
+    <t>6112011711840006</t>
+  </si>
+  <si>
+    <t>1208052304030002</t>
+  </si>
+  <si>
+    <t>1222010305010006</t>
+  </si>
+  <si>
+    <t>1471080212820021</t>
+  </si>
+  <si>
+    <t>1408101512010005</t>
+  </si>
+  <si>
+    <t>1602140804030001</t>
+  </si>
+  <si>
+    <t>1218605060000001</t>
+  </si>
+  <si>
+    <t>1802180409850003</t>
+  </si>
+  <si>
+    <t>1211093112040001</t>
+  </si>
+  <si>
+    <t>1201122307980002</t>
+  </si>
+  <si>
+    <t>1471103012150008</t>
+  </si>
+  <si>
+    <t>1403130705931697</t>
+  </si>
+  <si>
+    <t>1201151910950002</t>
+  </si>
+  <si>
+    <t>1214080910810005</t>
+  </si>
+  <si>
+    <t>1202011012040002</t>
+  </si>
+  <si>
+    <t>1207262801010016</t>
+  </si>
+  <si>
+    <t>1212081011850002</t>
+  </si>
+  <si>
+    <t>1201082506040001</t>
+  </si>
+  <si>
+    <t>1408100901010001</t>
+  </si>
+  <si>
+    <t>1202070809050001</t>
+  </si>
+  <si>
+    <t>1403132808000005</t>
+  </si>
+  <si>
+    <t>1208021007810006</t>
+  </si>
+  <si>
+    <t>1405031009960001</t>
+  </si>
+  <si>
+    <t>1471090701850021</t>
+  </si>
+  <si>
+    <t>1404196706360001</t>
+  </si>
+  <si>
+    <t>1110072510880001</t>
+  </si>
+  <si>
+    <t>1409085707980004</t>
+  </si>
+  <si>
+    <t>1409085711900004</t>
+  </si>
+  <si>
+    <t>1409081510860001</t>
+  </si>
+  <si>
+    <t>1203215909850006</t>
+  </si>
+  <si>
+    <t>1204047112840001</t>
+  </si>
+  <si>
+    <t>1204297009780001</t>
+  </si>
+  <si>
+    <t>1204062501970003</t>
+  </si>
+  <si>
+    <t>1407052304000009</t>
+  </si>
+  <si>
+    <t>1407032111880033</t>
+  </si>
+  <si>
+    <t>1405110510580006</t>
+  </si>
+  <si>
+    <t>1214010206010002</t>
+  </si>
+  <si>
+    <t>1408043108750001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,40 +1320,2827 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913846F9-43C6-4A6C-B876-DC6F7C812C94}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="B312" sqref="B312"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2">
+        <f>LEN(A2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3">
+        <f>LEN(A3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>LEN(A4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5">
+        <f>LEN(A5)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="B6">
+        <f>LEN(A6)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>LEN(A7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f>LEN(A8)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>LEN(A9)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f>LEN(A10)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>LEN(A11)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>LEN(A12)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>LEN(A13)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>LEN(A14)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f>LEN(A15)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f>LEN(A16)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>LEN(A17)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f>LEN(A18)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f>LEN(A19)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f>LEN(A20)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f>LEN(A21)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f>LEN(A22)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f>LEN(A23)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <f>LEN(A24)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <f>LEN(A25)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f>LEN(A26)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <f>LEN(A27)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f>LEN(A28)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <f>LEN(A29)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <f>LEN(A30)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <f>LEN(A31)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <f>LEN(A32)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f>LEN(A33)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <f>LEN(A34)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <f>LEN(A35)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <f>LEN(A36)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <f>LEN(A37)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <f>LEN(A38)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <f>LEN(A39)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <f>LEN(A40)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <f>LEN(A41)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <f>LEN(A42)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <f>LEN(A43)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <f>LEN(A44)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <f>LEN(A45)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <f>LEN(A46)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <f>LEN(A47)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <f>LEN(A48)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <f>LEN(A49)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <f>LEN(A50)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <f>LEN(A51)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <f>LEN(A52)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <f>LEN(A53)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <f>LEN(A54)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <f>LEN(A55)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <f>LEN(A56)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <f>LEN(A57)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <f>LEN(A58)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <f>LEN(A59)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <f>LEN(A60)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <f>LEN(A61)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <f>LEN(A62)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <f>LEN(A63)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <f>LEN(A64)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <f>LEN(A65)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <f>LEN(A66)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <f>LEN(A67)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <f>LEN(A68)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <f>LEN(A69)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <f>LEN(A70)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <f>LEN(A71)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <f>LEN(A72)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <f>LEN(A73)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <f>LEN(A74)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <f>LEN(A75)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <f>LEN(A76)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <f>LEN(A77)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <f>LEN(A78)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <f>LEN(A79)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <f>LEN(A80)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <f>LEN(A81)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <f>LEN(A82)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <f>LEN(A83)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <f>LEN(A84)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <f>LEN(A85)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <f>LEN(A86)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <f>LEN(A87)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <f>LEN(A88)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <f>LEN(A89)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <f>LEN(A90)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <f>LEN(A91)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <f>LEN(A92)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <f>LEN(A93)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <f>LEN(A94)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <f>LEN(A95)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <f>LEN(A96)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <f>LEN(A97)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <f>LEN(A98)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <f>LEN(A99)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <f>LEN(A100)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <f>LEN(A101)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <f>LEN(A102)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <f>LEN(A103)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <f>LEN(A104)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <f>LEN(A105)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <f>LEN(A106)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <f>LEN(A107)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <f>LEN(A108)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <f>LEN(A109)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <f>LEN(A110)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <f>LEN(A111)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <f>LEN(A112)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <f>LEN(A113)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <f>LEN(A114)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <f>LEN(A115)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <f>LEN(A116)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <f>LEN(A117)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <f>LEN(A118)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <f>LEN(A119)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <f>LEN(A120)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <f>LEN(A121)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <f>LEN(A122)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <f>LEN(A123)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <f>LEN(A124)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <f>LEN(A125)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <f>LEN(A126)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <f>LEN(A127)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <f>LEN(A128)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <f>LEN(A129)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <f>LEN(A130)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <f>LEN(A131)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <f>LEN(A132)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <f>LEN(A133)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <f>LEN(A134)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <f>LEN(A135)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <f>LEN(A136)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <f>LEN(A137)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <f>LEN(A138)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <f>LEN(A139)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <f>LEN(A140)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <f>LEN(A141)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <f>LEN(A142)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <f>LEN(A143)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <f>LEN(A144)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <f>LEN(A145)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <f>LEN(A146)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <f>LEN(A147)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <f>LEN(A148)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <f>LEN(A149)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <f>LEN(A150)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <f>LEN(A151)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <f>LEN(A152)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <f>LEN(A153)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <f>LEN(A154)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <f>LEN(A155)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <f>LEN(A156)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <f>LEN(A157)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <f>LEN(A158)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <f>LEN(A159)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <f>LEN(A160)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <f>LEN(A161)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <f>LEN(A162)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <f>LEN(A163)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <f>LEN(A164)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <f>LEN(A165)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <f>LEN(A166)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <f>LEN(A167)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <f>LEN(A168)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <f>LEN(A169)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <f>LEN(A170)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <f>LEN(A171)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <f>LEN(A172)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <f>LEN(A173)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <f>LEN(A174)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <f>LEN(A175)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <f>LEN(A176)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <f>LEN(A177)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <f>LEN(A178)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <f>LEN(A179)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <f>LEN(A180)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <f>LEN(A181)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <f>LEN(A182)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <f>LEN(A183)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <f>LEN(A184)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <f>LEN(A185)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <f>LEN(A186)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <f>LEN(A187)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <f>LEN(A188)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <f>LEN(A189)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <f>LEN(A190)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <f>LEN(A191)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <f>LEN(A192)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <f>LEN(A193)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <f>LEN(A194)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <f>LEN(A195)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <f>LEN(A196)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <f>LEN(A197)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <f>LEN(A198)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <f>LEN(A199)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200">
+        <f>LEN(A200)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <f>LEN(A201)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <f>LEN(A202)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <f>LEN(A203)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <f>LEN(A204)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <f>LEN(A205)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <f>LEN(A206)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <f>LEN(A207)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <f>LEN(A208)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <f>LEN(A209)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <f>LEN(A210)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <f>LEN(A211)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <f>LEN(A212)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <f>LEN(A213)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <f>LEN(A214)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <f>LEN(A215)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <f>LEN(A216)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <f>LEN(A217)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <f>LEN(A218)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <f>LEN(A219)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <f>LEN(A220)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <f>LEN(A221)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>219</v>
+      </c>
+      <c r="B222">
+        <f>LEN(A222)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>220</v>
+      </c>
+      <c r="B223">
+        <f>LEN(A223)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>221</v>
+      </c>
+      <c r="B224">
+        <f>LEN(A224)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225">
+        <f>LEN(A225)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>223</v>
+      </c>
+      <c r="B226">
+        <f>LEN(A226)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>224</v>
+      </c>
+      <c r="B227">
+        <f>LEN(A227)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <f>LEN(A228)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <f>LEN(A229)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <f>LEN(A230)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <f>LEN(A231)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232">
+        <f>LEN(A232)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233">
+        <f>LEN(A233)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>231</v>
+      </c>
+      <c r="B234">
+        <f>LEN(A234)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235">
+        <f>LEN(A235)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>233</v>
+      </c>
+      <c r="B236">
+        <f>LEN(A236)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>234</v>
+      </c>
+      <c r="B237">
+        <f>LEN(A237)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>235</v>
+      </c>
+      <c r="B238">
+        <f>LEN(A238)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239">
+        <f>LEN(A239)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240">
+        <f>LEN(A240)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <f>LEN(A241)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>239</v>
+      </c>
+      <c r="B242">
+        <f>LEN(A242)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>240</v>
+      </c>
+      <c r="B243">
+        <f>LEN(A243)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>241</v>
+      </c>
+      <c r="B244">
+        <f>LEN(A244)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245">
+        <f>LEN(A245)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>243</v>
+      </c>
+      <c r="B246">
+        <f>LEN(A246)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>244</v>
+      </c>
+      <c r="B247">
+        <f>LEN(A247)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>245</v>
+      </c>
+      <c r="B248">
+        <f>LEN(A248)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>246</v>
+      </c>
+      <c r="B249">
+        <f>LEN(A249)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>247</v>
+      </c>
+      <c r="B250">
+        <f>LEN(A250)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>248</v>
+      </c>
+      <c r="B251">
+        <f>LEN(A251)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>249</v>
+      </c>
+      <c r="B252">
+        <f>LEN(A252)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>250</v>
+      </c>
+      <c r="B253">
+        <f>LEN(A253)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>251</v>
+      </c>
+      <c r="B254">
+        <f>LEN(A254)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>252</v>
+      </c>
+      <c r="B255">
+        <f>LEN(A255)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>253</v>
+      </c>
+      <c r="B256">
+        <f>LEN(A256)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>254</v>
+      </c>
+      <c r="B257">
+        <f>LEN(A257)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B258">
+        <f>LEN(A258)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>256</v>
+      </c>
+      <c r="B259">
+        <f>LEN(A259)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>257</v>
+      </c>
+      <c r="B260">
+        <f>LEN(A260)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>258</v>
+      </c>
+      <c r="B261">
+        <f>LEN(A261)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>259</v>
+      </c>
+      <c r="B262">
+        <f>LEN(A262)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>260</v>
+      </c>
+      <c r="B263">
+        <f>LEN(A263)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>261</v>
+      </c>
+      <c r="B264">
+        <f>LEN(A264)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>262</v>
+      </c>
+      <c r="B265">
+        <f>LEN(A265)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>263</v>
+      </c>
+      <c r="B266">
+        <f>LEN(A266)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>264</v>
+      </c>
+      <c r="B267">
+        <f>LEN(A267)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>265</v>
+      </c>
+      <c r="B268">
+        <f>LEN(A268)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>266</v>
+      </c>
+      <c r="B269">
+        <f>LEN(A269)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>267</v>
+      </c>
+      <c r="B270">
+        <f>LEN(A270)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>268</v>
+      </c>
+      <c r="B271">
+        <f>LEN(A271)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>269</v>
+      </c>
+      <c r="B272">
+        <f>LEN(A272)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>270</v>
+      </c>
+      <c r="B273">
+        <f>LEN(A273)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>271</v>
+      </c>
+      <c r="B274">
+        <f>LEN(A274)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>272</v>
+      </c>
+      <c r="B275">
+        <f>LEN(A275)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>273</v>
+      </c>
+      <c r="B276">
+        <f>LEN(A276)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>274</v>
+      </c>
+      <c r="B277">
+        <f>LEN(A277)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>275</v>
+      </c>
+      <c r="B278">
+        <f>LEN(A278)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>276</v>
+      </c>
+      <c r="B279">
+        <f>LEN(A279)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>277</v>
+      </c>
+      <c r="B280">
+        <f>LEN(A280)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>278</v>
+      </c>
+      <c r="B281">
+        <f>LEN(A281)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>279</v>
+      </c>
+      <c r="B282">
+        <f>LEN(A282)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>280</v>
+      </c>
+      <c r="B283">
+        <f>LEN(A283)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>281</v>
+      </c>
+      <c r="B284">
+        <f>LEN(A284)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>282</v>
+      </c>
+      <c r="B285">
+        <f>LEN(A285)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>283</v>
+      </c>
+      <c r="B286">
+        <f>LEN(A286)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>284</v>
+      </c>
+      <c r="B287">
+        <f>LEN(A287)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>285</v>
+      </c>
+      <c r="B288">
+        <f>LEN(A288)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>286</v>
+      </c>
+      <c r="B289">
+        <f>LEN(A289)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>287</v>
+      </c>
+      <c r="B290">
+        <f>LEN(A290)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>288</v>
+      </c>
+      <c r="B291">
+        <f>LEN(A291)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>289</v>
+      </c>
+      <c r="B292">
+        <f>LEN(A292)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>290</v>
+      </c>
+      <c r="B293">
+        <f>LEN(A293)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>291</v>
+      </c>
+      <c r="B294">
+        <f>LEN(A294)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295">
+        <f>LEN(A295)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>293</v>
+      </c>
+      <c r="B296">
+        <f>LEN(A296)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>294</v>
+      </c>
+      <c r="B297">
+        <f>LEN(A297)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>295</v>
+      </c>
+      <c r="B298">
+        <f>LEN(A298)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>296</v>
+      </c>
+      <c r="B299">
+        <f>LEN(A299)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>297</v>
+      </c>
+      <c r="B300">
+        <f>LEN(A300)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>298</v>
+      </c>
+      <c r="B301">
+        <f>LEN(A301)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>299</v>
+      </c>
+      <c r="B302">
+        <f>LEN(A302)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>300</v>
+      </c>
+      <c r="B303">
+        <f>LEN(A303)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>301</v>
+      </c>
+      <c r="B304">
+        <f>LEN(A304)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>302</v>
+      </c>
+      <c r="B305">
+        <f>LEN(A305)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>303</v>
+      </c>
+      <c r="B306">
+        <f>LEN(A306)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>304</v>
+      </c>
+      <c r="B307">
+        <f>LEN(A307)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>305</v>
+      </c>
+      <c r="B308">
+        <f>LEN(A308)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>306</v>
+      </c>
+      <c r="B309">
+        <f>LEN(A309)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>307</v>
+      </c>
+      <c r="B310">
+        <f>LEN(A310)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>308</v>
+      </c>
+      <c r="B311">
+        <f>LEN(A311)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>309</v>
+      </c>
+      <c r="B312">
+        <f>LEN(A312)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
-    <sortCondition ref="A2:A4"/>
+  <sortState ref="A2:B326">
+    <sortCondition ref="B2:B326"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/indir/new_adminduk_disduk.xlsx
+++ b/indir/new_adminduk_disduk.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new_script\indir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E0B6DD-69D0-4DDD-89E7-1073969FFBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905E663-F4ED-4836-A1E4-2371D705C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2D7A57E-FA00-4186-8B27-F79A48BF455A}"/>
   </bookViews>
   <sheets>
     <sheet name="1-300" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,18 +36,987 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="327">
   <si>
     <t>ktp</t>
   </si>
   <si>
-    <t>1204040202730007</t>
-  </si>
-  <si>
-    <t>1116072004010004</t>
-  </si>
-  <si>
-    <t>1203140706960001</t>
+    <t>1401183006930002</t>
+  </si>
+  <si>
+    <t>6112011711840006</t>
+  </si>
+  <si>
+    <t>1102161111860002</t>
+  </si>
+  <si>
+    <t>1116062802000001</t>
+  </si>
+  <si>
+    <t>1201022803970002</t>
+  </si>
+  <si>
+    <t>1201070902000003</t>
+  </si>
+  <si>
+    <t>1202010605950003</t>
+  </si>
+  <si>
+    <t>1202014312010001</t>
+  </si>
+  <si>
+    <t>1202032802940002</t>
+  </si>
+  <si>
+    <t>1202094112960003</t>
+  </si>
+  <si>
+    <t>1203010108920004</t>
+  </si>
+  <si>
+    <t>1203010612950003</t>
+  </si>
+  <si>
+    <t>1203273006860001</t>
+  </si>
+  <si>
+    <t>1204282006900001</t>
+  </si>
+  <si>
+    <t>1205020611840003</t>
+  </si>
+  <si>
+    <t>1205072106870004</t>
+  </si>
+  <si>
+    <t>1205120309900007</t>
+  </si>
+  <si>
+    <t>1205122208920001</t>
+  </si>
+  <si>
+    <t>1205122906920002</t>
+  </si>
+  <si>
+    <t>1205140312000003</t>
+  </si>
+  <si>
+    <t>1205171507910004</t>
+  </si>
+  <si>
+    <t>1206121811840001</t>
+  </si>
+  <si>
+    <t>1207052411860003</t>
+  </si>
+  <si>
+    <t>1207261610870009</t>
+  </si>
+  <si>
+    <t>1207262701030011</t>
+  </si>
+  <si>
+    <t>1208012707870003</t>
+  </si>
+  <si>
+    <t>1208083004920001</t>
+  </si>
+  <si>
+    <t>1208091605870003</t>
+  </si>
+  <si>
+    <t>1208092602010002</t>
+  </si>
+  <si>
+    <t>1208110707750004</t>
+  </si>
+  <si>
+    <t>1209120107910004</t>
+  </si>
+  <si>
+    <t>1209150702950001</t>
+  </si>
+  <si>
+    <t>1209192204030004</t>
+  </si>
+  <si>
+    <t>1209192408830003</t>
+  </si>
+  <si>
+    <t>1210082108950002</t>
+  </si>
+  <si>
+    <t>1210192708960003</t>
+  </si>
+  <si>
+    <t>1212051402950001</t>
+  </si>
+  <si>
+    <t>1214031204990005</t>
+  </si>
+  <si>
+    <t>1214034205960009</t>
+  </si>
+  <si>
+    <t>1214091801870001</t>
+  </si>
+  <si>
+    <t>1214096507860001</t>
+  </si>
+  <si>
+    <t>1214176810990003</t>
+  </si>
+  <si>
+    <t>1216081808940001</t>
+  </si>
+  <si>
+    <t>1218117112870001</t>
+  </si>
+  <si>
+    <t>1219030506750003</t>
+  </si>
+  <si>
+    <t>1219041910970009</t>
+  </si>
+  <si>
+    <t>1219060201960006</t>
+  </si>
+  <si>
+    <t>1220051111980002</t>
+  </si>
+  <si>
+    <t>1221072908000002</t>
+  </si>
+  <si>
+    <t>1222041603930004</t>
+  </si>
+  <si>
+    <t>1222052501990001</t>
+  </si>
+  <si>
+    <t>1223012304960001</t>
+  </si>
+  <si>
+    <t>1223046808840003</t>
+  </si>
+  <si>
+    <t>1224091106930001</t>
+  </si>
+  <si>
+    <t>1224100811010001</t>
+  </si>
+  <si>
+    <t>1271030607980003</t>
+  </si>
+  <si>
+    <t>1271060302920005</t>
+  </si>
+  <si>
+    <t>1271070407880002</t>
+  </si>
+  <si>
+    <t>1271105204930002</t>
+  </si>
+  <si>
+    <t>1271173010000002</t>
+  </si>
+  <si>
+    <t>1271173110910002</t>
+  </si>
+  <si>
+    <t>1271210409560001</t>
+  </si>
+  <si>
+    <t>1272020606900002</t>
+  </si>
+  <si>
+    <t>1272057007910002</t>
+  </si>
+  <si>
+    <t>1274030609570001</t>
+  </si>
+  <si>
+    <t>1274031707930002</t>
+  </si>
+  <si>
+    <t>1277021408870004</t>
+  </si>
+  <si>
+    <t>1277040211960002</t>
+  </si>
+  <si>
+    <t>1277057105940001</t>
+  </si>
+  <si>
+    <t>1278011102000001</t>
+  </si>
+  <si>
+    <t>1278030109000001</t>
+  </si>
+  <si>
+    <t>1301042503000004</t>
+  </si>
+  <si>
+    <t>1301050101010009</t>
+  </si>
+  <si>
+    <t>1301094608980003</t>
+  </si>
+  <si>
+    <t>1304061706810001</t>
+  </si>
+  <si>
+    <t>1304080403800001</t>
+  </si>
+  <si>
+    <t>1304132408950003</t>
+  </si>
+  <si>
+    <t>1305093006980003</t>
+  </si>
+  <si>
+    <t>1305121112980001</t>
+  </si>
+  <si>
+    <t>1305141807940002</t>
+  </si>
+  <si>
+    <t>1306021001990001</t>
+  </si>
+  <si>
+    <t>1307062805910001</t>
+  </si>
+  <si>
+    <t>1308041905000002</t>
+  </si>
+  <si>
+    <t>1308053008950001</t>
+  </si>
+  <si>
+    <t>1312071302900001</t>
+  </si>
+  <si>
+    <t>1371062808910004</t>
+  </si>
+  <si>
+    <t>1371090109950008</t>
+  </si>
+  <si>
+    <t>1371100901160001</t>
+  </si>
+  <si>
+    <t>1371101408130001</t>
+  </si>
+  <si>
+    <t>1377020909920001</t>
+  </si>
+  <si>
+    <t>1401012712750001</t>
+  </si>
+  <si>
+    <t>1401030810150001</t>
+  </si>
+  <si>
+    <t>1401035812130003</t>
+  </si>
+  <si>
+    <t>1401041711020003</t>
+  </si>
+  <si>
+    <t>1401056101970004</t>
+  </si>
+  <si>
+    <t>1401060103640003</t>
+  </si>
+  <si>
+    <t>1401060606740007</t>
+  </si>
+  <si>
+    <t>1401060607840009</t>
+  </si>
+  <si>
+    <t>1401061906870004</t>
+  </si>
+  <si>
+    <t>1401062511000008</t>
+  </si>
+  <si>
+    <t>1401100210000006</t>
+  </si>
+  <si>
+    <t>1401102906990006</t>
+  </si>
+  <si>
+    <t>1401120603010002</t>
+  </si>
+  <si>
+    <t>1401120712760006</t>
+  </si>
+  <si>
+    <t>1401120808740007</t>
+  </si>
+  <si>
+    <t>1401122108000006</t>
+  </si>
+  <si>
+    <t>1401122307800002</t>
+  </si>
+  <si>
+    <t>1401122310990007</t>
+  </si>
+  <si>
+    <t>1401124709610002</t>
+  </si>
+  <si>
+    <t>1401130204810001</t>
+  </si>
+  <si>
+    <t>1401130803010001</t>
+  </si>
+  <si>
+    <t>1401144909850001</t>
+  </si>
+  <si>
+    <t>1401171112980004</t>
+  </si>
+  <si>
+    <t>1401182810950002</t>
+  </si>
+  <si>
+    <t>1401201604030003</t>
+  </si>
+  <si>
+    <t>1402020909990010</t>
+  </si>
+  <si>
+    <t>1402024912110001</t>
+  </si>
+  <si>
+    <t>1402045302960002</t>
+  </si>
+  <si>
+    <t>1402057008130001</t>
+  </si>
+  <si>
+    <t>1402071705950004</t>
+  </si>
+  <si>
+    <t>1402071906150001</t>
+  </si>
+  <si>
+    <t>1402080402990001</t>
+  </si>
+  <si>
+    <t>1402084508000001</t>
+  </si>
+  <si>
+    <t>1402092607870001</t>
+  </si>
+  <si>
+    <t>1402131002680002</t>
+  </si>
+  <si>
+    <t>1403026508981399</t>
+  </si>
+  <si>
+    <t>1403042011987603</t>
+  </si>
+  <si>
+    <t>1403051005709860</t>
+  </si>
+  <si>
+    <t>1403082310944994</t>
+  </si>
+  <si>
+    <t>1403091501018392</t>
+  </si>
+  <si>
+    <t>1403092611920670</t>
+  </si>
+  <si>
+    <t>1403094507680004</t>
+  </si>
+  <si>
+    <t>1403123004804265</t>
+  </si>
+  <si>
+    <t>1403133004020003</t>
+  </si>
+  <si>
+    <t>1404101205930001</t>
+  </si>
+  <si>
+    <t>1404196706960001</t>
+  </si>
+  <si>
+    <t>1405020307850002</t>
+  </si>
+  <si>
+    <t>1405020308010008</t>
+  </si>
+  <si>
+    <t>1405020402860003</t>
+  </si>
+  <si>
+    <t>1405020610900001</t>
+  </si>
+  <si>
+    <t>1405020707030009</t>
+  </si>
+  <si>
+    <t>1405020712860004</t>
+  </si>
+  <si>
+    <t>1405021006880004</t>
+  </si>
+  <si>
+    <t>1405021207780006</t>
+  </si>
+  <si>
+    <t>1405021704860005</t>
+  </si>
+  <si>
+    <t>1405021704980007</t>
+  </si>
+  <si>
+    <t>1405021802700003</t>
+  </si>
+  <si>
+    <t>1405022006900011</t>
+  </si>
+  <si>
+    <t>1405024809970004</t>
+  </si>
+  <si>
+    <t>1405025311990005</t>
+  </si>
+  <si>
+    <t>1405025402650002</t>
+  </si>
+  <si>
+    <t>1405027112700022</t>
+  </si>
+  <si>
+    <t>1405031304950007</t>
+  </si>
+  <si>
+    <t>1405035007840004</t>
+  </si>
+  <si>
+    <t>1405035603960013</t>
+  </si>
+  <si>
+    <t>1405050508940004</t>
+  </si>
+  <si>
+    <t>1405051603940001</t>
+  </si>
+  <si>
+    <t>1405052708000001</t>
+  </si>
+  <si>
+    <t>1405055104970001</t>
+  </si>
+  <si>
+    <t>1405060205810002</t>
+  </si>
+  <si>
+    <t>1405060304030003</t>
+  </si>
+  <si>
+    <t>1405060510980001</t>
+  </si>
+  <si>
+    <t>1405060709000004</t>
+  </si>
+  <si>
+    <t>1405060807830001</t>
+  </si>
+  <si>
+    <t>1405062608870001</t>
+  </si>
+  <si>
+    <t>1405066302830004</t>
+  </si>
+  <si>
+    <t>1405070710930001</t>
+  </si>
+  <si>
+    <t>1405081308860002</t>
+  </si>
+  <si>
+    <t>1405083112910002</t>
+  </si>
+  <si>
+    <t>1405096601030001</t>
+  </si>
+  <si>
+    <t>1405104101900007</t>
+  </si>
+  <si>
+    <t>1405106011960001</t>
+  </si>
+  <si>
+    <t>1405110510850006</t>
+  </si>
+  <si>
+    <t>1405114504860003</t>
+  </si>
+  <si>
+    <t>1405115011660003</t>
+  </si>
+  <si>
+    <t>1405115107850001</t>
+  </si>
+  <si>
+    <t>1405122807990002</t>
+  </si>
+  <si>
+    <t>1406040807920005</t>
+  </si>
+  <si>
+    <t>1406060310000004</t>
+  </si>
+  <si>
+    <t>1406060607870005</t>
+  </si>
+  <si>
+    <t>1406060706020003</t>
+  </si>
+  <si>
+    <t>1406060902980002</t>
+  </si>
+  <si>
+    <t>1406061006000008</t>
+  </si>
+  <si>
+    <t>1406061202020006</t>
+  </si>
+  <si>
+    <t>1406061208960004</t>
+  </si>
+  <si>
+    <t>1406061301920003</t>
+  </si>
+  <si>
+    <t>1406061407900004</t>
+  </si>
+  <si>
+    <t>1406061505950003</t>
+  </si>
+  <si>
+    <t>1406061506990003</t>
+  </si>
+  <si>
+    <t>1406062001990007</t>
+  </si>
+  <si>
+    <t>1406062010980007</t>
+  </si>
+  <si>
+    <t>1406062201010003</t>
+  </si>
+  <si>
+    <t>1406062507990003</t>
+  </si>
+  <si>
+    <t>1406063107950006</t>
+  </si>
+  <si>
+    <t>1406063107950007</t>
+  </si>
+  <si>
+    <t>1406070909990010</t>
+  </si>
+  <si>
+    <t>1406091611860003</t>
+  </si>
+  <si>
+    <t>1406140604870002</t>
+  </si>
+  <si>
+    <t>1407024405820011</t>
+  </si>
+  <si>
+    <t>1407032111880002</t>
+  </si>
+  <si>
+    <t>1407032705010004</t>
+  </si>
+  <si>
+    <t>1407045101890004</t>
+  </si>
+  <si>
+    <t>1407050307990007</t>
+  </si>
+  <si>
+    <t>1407050503010002</t>
+  </si>
+  <si>
+    <t>1407052501950006</t>
+  </si>
+  <si>
+    <t>1407081206900004</t>
+  </si>
+  <si>
+    <t>1407106302030006</t>
+  </si>
+  <si>
+    <t>1408020808970001</t>
+  </si>
+  <si>
+    <t>1408040607010007</t>
+  </si>
+  <si>
+    <t>1408040705810003</t>
+  </si>
+  <si>
+    <t>1408040707710021</t>
+  </si>
+  <si>
+    <t>1408040801770003</t>
+  </si>
+  <si>
+    <t>1408041012680010</t>
+  </si>
+  <si>
+    <t>1408041101990018</t>
+  </si>
+  <si>
+    <t>1408041306020010</t>
+  </si>
+  <si>
+    <t>1408041308030002</t>
+  </si>
+  <si>
+    <t>1408041309020010</t>
+  </si>
+  <si>
+    <t>1408041509650005</t>
+  </si>
+  <si>
+    <t>1408041510810002</t>
+  </si>
+  <si>
+    <t>1408041711000006</t>
+  </si>
+  <si>
+    <t>1408041806000006</t>
+  </si>
+  <si>
+    <t>1408041806970006</t>
+  </si>
+  <si>
+    <t>1408041808740004</t>
+  </si>
+  <si>
+    <t>1408041906640004</t>
+  </si>
+  <si>
+    <t>1408041911000005</t>
+  </si>
+  <si>
+    <t>1408042107000009</t>
+  </si>
+  <si>
+    <t>1408042910010001</t>
+  </si>
+  <si>
+    <t>1408045608730009</t>
+  </si>
+  <si>
+    <t>1408046003990003</t>
+  </si>
+  <si>
+    <t>1408061612990004</t>
+  </si>
+  <si>
+    <t>1408062408970002</t>
+  </si>
+  <si>
+    <t>1408062605030001</t>
+  </si>
+  <si>
+    <t>1408090506020001</t>
+  </si>
+  <si>
+    <t>1408090603910001</t>
+  </si>
+  <si>
+    <t>1408091206980001</t>
+  </si>
+  <si>
+    <t>1408091308020007</t>
+  </si>
+  <si>
+    <t>1408092506870003</t>
+  </si>
+  <si>
+    <t>1408094508000001</t>
+  </si>
+  <si>
+    <t>1408100508800006</t>
+  </si>
+  <si>
+    <t>1408101005800006</t>
+  </si>
+  <si>
+    <t>1408111406970001</t>
+  </si>
+  <si>
+    <t>1408116204020001</t>
+  </si>
+  <si>
+    <t>1408141610960001</t>
+  </si>
+  <si>
+    <t>1409022207960002</t>
+  </si>
+  <si>
+    <t>1409040201910002</t>
+  </si>
+  <si>
+    <t>1409040305940001</t>
+  </si>
+  <si>
+    <t>1409082308900003</t>
+  </si>
+  <si>
+    <t>1409082804990001</t>
+  </si>
+  <si>
+    <t>1409111008920002</t>
+  </si>
+  <si>
+    <t>1409114302950002</t>
+  </si>
+  <si>
+    <t>1409116010970002</t>
+  </si>
+  <si>
+    <t>1410010712770001</t>
+  </si>
+  <si>
+    <t>1471011908970001</t>
+  </si>
+  <si>
+    <t>1471016106930001</t>
+  </si>
+  <si>
+    <t>1471026503730021</t>
+  </si>
+  <si>
+    <t>1471050510960022</t>
+  </si>
+  <si>
+    <t>1471061309970001</t>
+  </si>
+  <si>
+    <t>1471062403010001</t>
+  </si>
+  <si>
+    <t>1471064702000003</t>
+  </si>
+  <si>
+    <t>1471066005970021</t>
+  </si>
+  <si>
+    <t>1471066209090002</t>
+  </si>
+  <si>
+    <t>1471070102960022</t>
+  </si>
+  <si>
+    <t>1471070802890021</t>
+  </si>
+  <si>
+    <t>1471071307810042</t>
+  </si>
+  <si>
+    <t>1471072806890061</t>
+  </si>
+  <si>
+    <t>1471081112130008</t>
+  </si>
+  <si>
+    <t>1471086009140006</t>
+  </si>
+  <si>
+    <t>1471091810860001</t>
+  </si>
+  <si>
+    <t>1471095111770103</t>
+  </si>
+  <si>
+    <t>1471096509120003</t>
+  </si>
+  <si>
+    <t>1471100411010005</t>
+  </si>
+  <si>
+    <t>1471101606920001</t>
+  </si>
+  <si>
+    <t>1471101706780064</t>
+  </si>
+  <si>
+    <t>1471103112820201</t>
+  </si>
+  <si>
+    <t>1471104205990021</t>
+  </si>
+  <si>
+    <t>1471106203980001</t>
+  </si>
+  <si>
+    <t>1471106408650002</t>
+  </si>
+  <si>
+    <t>1471106703980002</t>
+  </si>
+  <si>
+    <t>1471110407100001</t>
+  </si>
+  <si>
+    <t>1471112308130005</t>
+  </si>
+  <si>
+    <t>1471112508990001</t>
+  </si>
+  <si>
+    <t>1471125403960001</t>
+  </si>
+  <si>
+    <t>1471125909890001</t>
+  </si>
+  <si>
+    <t>1472010807750001</t>
+  </si>
+  <si>
+    <t>1502105609950001</t>
+  </si>
+  <si>
+    <t>1503051601990001</t>
+  </si>
+  <si>
+    <t>1602081510940001</t>
+  </si>
+  <si>
+    <t>1606045310900004</t>
+  </si>
+  <si>
+    <t>1606061206850009</t>
+  </si>
+  <si>
+    <t>1674020107990103</t>
+  </si>
+  <si>
+    <t>1674021707940004</t>
+  </si>
+  <si>
+    <t>1802061305830003</t>
+  </si>
+  <si>
+    <t>1802101206950002</t>
+  </si>
+  <si>
+    <t>2171031708909011</t>
+  </si>
+  <si>
+    <t>2171101012609005</t>
+  </si>
+  <si>
+    <t>3172041004910008</t>
+  </si>
+  <si>
+    <t>3203191303010005</t>
+  </si>
+  <si>
+    <t>3404121312880002</t>
+  </si>
+  <si>
+    <t>3501090506750003</t>
+  </si>
+  <si>
+    <t>3501090509780001</t>
+  </si>
+  <si>
+    <t>3501090605780010</t>
+  </si>
+  <si>
+    <t>3501090608740004</t>
+  </si>
+  <si>
+    <t>3501090904990001</t>
+  </si>
+  <si>
+    <t>3501091502980003</t>
+  </si>
+  <si>
+    <t>3501092009960004</t>
+  </si>
+  <si>
+    <t>3501093007940001</t>
+  </si>
+  <si>
+    <t>3501101302740002</t>
+  </si>
+  <si>
+    <t>3501101909750001</t>
+  </si>
+  <si>
+    <t>3503081408700001</t>
+  </si>
+  <si>
+    <t>3503125108720001</t>
+  </si>
+  <si>
+    <t>3506030203680003</t>
+  </si>
+  <si>
+    <t>3519060211690003</t>
+  </si>
+  <si>
+    <t>3519060806750001</t>
+  </si>
+  <si>
+    <t>3519061101840001</t>
+  </si>
+  <si>
+    <t>3519061607650004</t>
+  </si>
+  <si>
+    <t>3519061902740001</t>
+  </si>
+  <si>
+    <t>3519062709780001</t>
+  </si>
+  <si>
+    <t>3522022609970001</t>
+  </si>
+  <si>
+    <t>5308075512970001</t>
+  </si>
+  <si>
+    <t>6101132504740001</t>
+  </si>
+  <si>
+    <t>6205022212990002</t>
+  </si>
+  <si>
+    <t>6409041008960003</t>
+  </si>
+  <si>
+    <t>6409043006020001</t>
+  </si>
+  <si>
+    <t>6472064901090003</t>
+  </si>
+  <si>
+    <t>6472066706070003</t>
+  </si>
+  <si>
+    <t>7326011205900003</t>
   </si>
 </sst>
 </file>
@@ -398,9 +1369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913846F9-43C6-4A6C-B876-DC6F7C812C94}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,23 +1387,1685 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187251E-E253-4757-9F9F-AD090CA8207B}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
-    <sortCondition ref="A2:A4"/>
-  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB66E69-A516-42E3-8B53-599C3CFFA32D}">
+  <dimension ref="A1:A131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/indir/new_adminduk_disduk.xlsx
+++ b/indir/new_adminduk_disduk.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new_script\new_script\indir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new_script\indir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D327C9AC-38A8-4D8B-920B-00952502395F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-300" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -974,7 +976,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1320,2826 +1322,1577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B312"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="B312" sqref="B312"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>310</v>
       </c>
-      <c r="B2">
-        <f>LEN(A2)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>311</v>
       </c>
-      <c r="B3">
-        <f>LEN(A3)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <f>LEN(A4)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <f>LEN(A5)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <f>LEN(A6)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <f>LEN(A7)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <f>LEN(A8)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <f>LEN(A9)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <f>LEN(A10)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <f>LEN(A11)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <f>LEN(A12)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <f>LEN(A13)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <f>LEN(A14)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
-        <f>LEN(A15)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <f>LEN(A16)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <f>LEN(A17)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
-        <f>LEN(A18)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
-        <f>LEN(A19)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <f>LEN(A20)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
-        <f>LEN(A21)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
-        <f>LEN(A22)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
-        <f>LEN(A23)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
-        <f>LEN(A24)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
-        <f>LEN(A25)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <f>LEN(A26)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <f>LEN(A27)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
-        <f>LEN(A28)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
-        <f>LEN(A29)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
-        <f>LEN(A30)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
-        <f>LEN(A31)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32">
-        <f>LEN(A32)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33">
-        <f>LEN(A33)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34">
-        <f>LEN(A34)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35">
-        <f>LEN(A35)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36">
-        <f>LEN(A36)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
-        <f>LEN(A37)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38">
-        <f>LEN(A38)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39">
-        <f>LEN(A39)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40">
-        <f>LEN(A40)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41">
-        <f>LEN(A41)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42">
-        <f>LEN(A42)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43">
-        <f>LEN(A43)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44">
-        <f>LEN(A44)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45">
-        <f>LEN(A45)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46">
-        <f>LEN(A46)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47">
-        <f>LEN(A47)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
-        <f>LEN(A48)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B49">
-        <f>LEN(A49)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
-        <f>LEN(A50)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B51">
-        <f>LEN(A51)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B52">
-        <f>LEN(A52)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B53">
-        <f>LEN(A53)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B54">
-        <f>LEN(A54)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B55">
-        <f>LEN(A55)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B56">
-        <f>LEN(A56)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57">
-        <f>LEN(A57)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B58">
-        <f>LEN(A58)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B59">
-        <f>LEN(A59)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B60">
-        <f>LEN(A60)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="B61">
-        <f>LEN(A61)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B62">
-        <f>LEN(A62)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B63">
-        <f>LEN(A63)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
-      <c r="B64">
-        <f>LEN(A64)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
-      <c r="B65">
-        <f>LEN(A65)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
-      <c r="B66">
-        <f>LEN(A66)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
-      <c r="B67">
-        <f>LEN(A67)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
-      <c r="B68">
-        <f>LEN(A68)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
-      <c r="B69">
-        <f>LEN(A69)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
-      <c r="B70">
-        <f>LEN(A70)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
-      <c r="B71">
-        <f>LEN(A71)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
-      <c r="B72">
-        <f>LEN(A72)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
-      <c r="B73">
-        <f>LEN(A73)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
-      <c r="B74">
-        <f>LEN(A74)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
-      <c r="B75">
-        <f>LEN(A75)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
-      <c r="B76">
-        <f>LEN(A76)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
-      <c r="B77">
-        <f>LEN(A77)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="B78">
-        <f>LEN(A78)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
-      <c r="B79">
-        <f>LEN(A79)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
-      <c r="B80">
-        <f>LEN(A80)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
-      <c r="B81">
-        <f>LEN(A81)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
-      <c r="B82">
-        <f>LEN(A82)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
-      <c r="B83">
-        <f>LEN(A83)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
-      <c r="B84">
-        <f>LEN(A84)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
-      <c r="B85">
-        <f>LEN(A85)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
-      <c r="B86">
-        <f>LEN(A86)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
-      <c r="B87">
-        <f>LEN(A87)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
-      <c r="B88">
-        <f>LEN(A88)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
-      <c r="B89">
-        <f>LEN(A89)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
-      <c r="B90">
-        <f>LEN(A90)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
-      <c r="B91">
-        <f>LEN(A91)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
-      <c r="B92">
-        <f>LEN(A92)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
-      <c r="B93">
-        <f>LEN(A93)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
-      <c r="B94">
-        <f>LEN(A94)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
-      <c r="B95">
-        <f>LEN(A95)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
-      <c r="B96">
-        <f>LEN(A96)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
-      <c r="B97">
-        <f>LEN(A97)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
-      <c r="B98">
-        <f>LEN(A98)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
-      <c r="B99">
-        <f>LEN(A99)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
-      <c r="B100">
-        <f>LEN(A100)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
-      <c r="B101">
-        <f>LEN(A101)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
-      <c r="B102">
-        <f>LEN(A102)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
-      <c r="B103">
-        <f>LEN(A103)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
-      <c r="B104">
-        <f>LEN(A104)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
-      <c r="B105">
-        <f>LEN(A105)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
-      <c r="B106">
-        <f>LEN(A106)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
-      <c r="B107">
-        <f>LEN(A107)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
-      <c r="B108">
-        <f>LEN(A108)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
-      <c r="B109">
-        <f>LEN(A109)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
-      <c r="B110">
-        <f>LEN(A110)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
-      <c r="B111">
-        <f>LEN(A111)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
-      <c r="B112">
-        <f>LEN(A112)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
-      <c r="B113">
-        <f>LEN(A113)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
-      <c r="B114">
-        <f>LEN(A114)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
-      <c r="B115">
-        <f>LEN(A115)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>113</v>
       </c>
-      <c r="B116">
-        <f>LEN(A116)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>114</v>
       </c>
-      <c r="B117">
-        <f>LEN(A117)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>115</v>
       </c>
-      <c r="B118">
-        <f>LEN(A118)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
-      <c r="B119">
-        <f>LEN(A119)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
-      <c r="B120">
-        <f>LEN(A120)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>118</v>
       </c>
-      <c r="B121">
-        <f>LEN(A121)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>119</v>
       </c>
-      <c r="B122">
-        <f>LEN(A122)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>120</v>
       </c>
-      <c r="B123">
-        <f>LEN(A123)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>121</v>
       </c>
-      <c r="B124">
-        <f>LEN(A124)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>122</v>
       </c>
-      <c r="B125">
-        <f>LEN(A125)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>123</v>
       </c>
-      <c r="B126">
-        <f>LEN(A126)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>124</v>
       </c>
-      <c r="B127">
-        <f>LEN(A127)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>125</v>
       </c>
-      <c r="B128">
-        <f>LEN(A128)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>126</v>
       </c>
-      <c r="B129">
-        <f>LEN(A129)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>127</v>
       </c>
-      <c r="B130">
-        <f>LEN(A130)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
-      <c r="B131">
-        <f>LEN(A131)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>129</v>
       </c>
-      <c r="B132">
-        <f>LEN(A132)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>130</v>
       </c>
-      <c r="B133">
-        <f>LEN(A133)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>131</v>
       </c>
-      <c r="B134">
-        <f>LEN(A134)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>132</v>
       </c>
-      <c r="B135">
-        <f>LEN(A135)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>133</v>
       </c>
-      <c r="B136">
-        <f>LEN(A136)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
-      <c r="B137">
-        <f>LEN(A137)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>135</v>
       </c>
-      <c r="B138">
-        <f>LEN(A138)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>136</v>
       </c>
-      <c r="B139">
-        <f>LEN(A139)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>137</v>
       </c>
-      <c r="B140">
-        <f>LEN(A140)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>138</v>
       </c>
-      <c r="B141">
-        <f>LEN(A141)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>139</v>
       </c>
-      <c r="B142">
-        <f>LEN(A142)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>140</v>
       </c>
-      <c r="B143">
-        <f>LEN(A143)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>141</v>
       </c>
-      <c r="B144">
-        <f>LEN(A144)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>142</v>
       </c>
-      <c r="B145">
-        <f>LEN(A145)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>143</v>
       </c>
-      <c r="B146">
-        <f>LEN(A146)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>144</v>
       </c>
-      <c r="B147">
-        <f>LEN(A147)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>145</v>
       </c>
-      <c r="B148">
-        <f>LEN(A148)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>146</v>
       </c>
-      <c r="B149">
-        <f>LEN(A149)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>147</v>
       </c>
-      <c r="B150">
-        <f>LEN(A150)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>148</v>
       </c>
-      <c r="B151">
-        <f>LEN(A151)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>149</v>
       </c>
-      <c r="B152">
-        <f>LEN(A152)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>150</v>
       </c>
-      <c r="B153">
-        <f>LEN(A153)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>151</v>
       </c>
-      <c r="B154">
-        <f>LEN(A154)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>152</v>
       </c>
-      <c r="B155">
-        <f>LEN(A155)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>153</v>
       </c>
-      <c r="B156">
-        <f>LEN(A156)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>154</v>
       </c>
-      <c r="B157">
-        <f>LEN(A157)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>155</v>
       </c>
-      <c r="B158">
-        <f>LEN(A158)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>156</v>
       </c>
-      <c r="B159">
-        <f>LEN(A159)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>157</v>
       </c>
-      <c r="B160">
-        <f>LEN(A160)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>158</v>
       </c>
-      <c r="B161">
-        <f>LEN(A161)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>159</v>
       </c>
-      <c r="B162">
-        <f>LEN(A162)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>160</v>
       </c>
-      <c r="B163">
-        <f>LEN(A163)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>161</v>
       </c>
-      <c r="B164">
-        <f>LEN(A164)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>162</v>
       </c>
-      <c r="B165">
-        <f>LEN(A165)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>163</v>
       </c>
-      <c r="B166">
-        <f>LEN(A166)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>164</v>
       </c>
-      <c r="B167">
-        <f>LEN(A167)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
-      <c r="B168">
-        <f>LEN(A168)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>166</v>
       </c>
-      <c r="B169">
-        <f>LEN(A169)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>167</v>
       </c>
-      <c r="B170">
-        <f>LEN(A170)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>168</v>
       </c>
-      <c r="B171">
-        <f>LEN(A171)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>169</v>
       </c>
-      <c r="B172">
-        <f>LEN(A172)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>170</v>
       </c>
-      <c r="B173">
-        <f>LEN(A173)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>171</v>
       </c>
-      <c r="B174">
-        <f>LEN(A174)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>172</v>
       </c>
-      <c r="B175">
-        <f>LEN(A175)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>173</v>
       </c>
-      <c r="B176">
-        <f>LEN(A176)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>174</v>
       </c>
-      <c r="B177">
-        <f>LEN(A177)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>175</v>
       </c>
-      <c r="B178">
-        <f>LEN(A178)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>176</v>
       </c>
-      <c r="B179">
-        <f>LEN(A179)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>177</v>
       </c>
-      <c r="B180">
-        <f>LEN(A180)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
-      <c r="B181">
-        <f>LEN(A181)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>179</v>
       </c>
-      <c r="B182">
-        <f>LEN(A182)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>180</v>
       </c>
-      <c r="B183">
-        <f>LEN(A183)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>181</v>
       </c>
-      <c r="B184">
-        <f>LEN(A184)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>182</v>
       </c>
-      <c r="B185">
-        <f>LEN(A185)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>183</v>
       </c>
-      <c r="B186">
-        <f>LEN(A186)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>184</v>
       </c>
-      <c r="B187">
-        <f>LEN(A187)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>185</v>
       </c>
-      <c r="B188">
-        <f>LEN(A188)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>186</v>
       </c>
-      <c r="B189">
-        <f>LEN(A189)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>187</v>
       </c>
-      <c r="B190">
-        <f>LEN(A190)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>188</v>
       </c>
-      <c r="B191">
-        <f>LEN(A191)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>189</v>
       </c>
-      <c r="B192">
-        <f>LEN(A192)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>190</v>
       </c>
-      <c r="B193">
-        <f>LEN(A193)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>191</v>
       </c>
-      <c r="B194">
-        <f>LEN(A194)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>192</v>
       </c>
-      <c r="B195">
-        <f>LEN(A195)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>193</v>
       </c>
-      <c r="B196">
-        <f>LEN(A196)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>194</v>
       </c>
-      <c r="B197">
-        <f>LEN(A197)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>195</v>
       </c>
-      <c r="B198">
-        <f>LEN(A198)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>196</v>
       </c>
-      <c r="B199">
-        <f>LEN(A199)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>197</v>
       </c>
-      <c r="B200">
-        <f>LEN(A200)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>198</v>
       </c>
-      <c r="B201">
-        <f>LEN(A201)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>199</v>
       </c>
-      <c r="B202">
-        <f>LEN(A202)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>200</v>
       </c>
-      <c r="B203">
-        <f>LEN(A203)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>201</v>
       </c>
-      <c r="B204">
-        <f>LEN(A204)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>202</v>
       </c>
-      <c r="B205">
-        <f>LEN(A205)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>203</v>
       </c>
-      <c r="B206">
-        <f>LEN(A206)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
-      <c r="B207">
-        <f>LEN(A207)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>205</v>
       </c>
-      <c r="B208">
-        <f>LEN(A208)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>206</v>
       </c>
-      <c r="B209">
-        <f>LEN(A209)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>207</v>
       </c>
-      <c r="B210">
-        <f>LEN(A210)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>208</v>
       </c>
-      <c r="B211">
-        <f>LEN(A211)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>209</v>
       </c>
-      <c r="B212">
-        <f>LEN(A212)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>210</v>
       </c>
-      <c r="B213">
-        <f>LEN(A213)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>211</v>
       </c>
-      <c r="B214">
-        <f>LEN(A214)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>212</v>
       </c>
-      <c r="B215">
-        <f>LEN(A215)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>213</v>
       </c>
-      <c r="B216">
-        <f>LEN(A216)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>214</v>
       </c>
-      <c r="B217">
-        <f>LEN(A217)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>215</v>
       </c>
-      <c r="B218">
-        <f>LEN(A218)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>216</v>
       </c>
-      <c r="B219">
-        <f>LEN(A219)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>217</v>
       </c>
-      <c r="B220">
-        <f>LEN(A220)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>218</v>
       </c>
-      <c r="B221">
-        <f>LEN(A221)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>219</v>
       </c>
-      <c r="B222">
-        <f>LEN(A222)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>220</v>
       </c>
-      <c r="B223">
-        <f>LEN(A223)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>221</v>
       </c>
-      <c r="B224">
-        <f>LEN(A224)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>222</v>
       </c>
-      <c r="B225">
-        <f>LEN(A225)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>223</v>
       </c>
-      <c r="B226">
-        <f>LEN(A226)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>224</v>
       </c>
-      <c r="B227">
-        <f>LEN(A227)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>225</v>
       </c>
-      <c r="B228">
-        <f>LEN(A228)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>226</v>
       </c>
-      <c r="B229">
-        <f>LEN(A229)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>227</v>
       </c>
-      <c r="B230">
-        <f>LEN(A230)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>228</v>
       </c>
-      <c r="B231">
-        <f>LEN(A231)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>229</v>
       </c>
-      <c r="B232">
-        <f>LEN(A232)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>230</v>
       </c>
-      <c r="B233">
-        <f>LEN(A233)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>231</v>
       </c>
-      <c r="B234">
-        <f>LEN(A234)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>232</v>
       </c>
-      <c r="B235">
-        <f>LEN(A235)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>233</v>
       </c>
-      <c r="B236">
-        <f>LEN(A236)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>234</v>
       </c>
-      <c r="B237">
-        <f>LEN(A237)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>235</v>
       </c>
-      <c r="B238">
-        <f>LEN(A238)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>236</v>
       </c>
-      <c r="B239">
-        <f>LEN(A239)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>237</v>
       </c>
-      <c r="B240">
-        <f>LEN(A240)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>238</v>
       </c>
-      <c r="B241">
-        <f>LEN(A241)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>239</v>
       </c>
-      <c r="B242">
-        <f>LEN(A242)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>240</v>
       </c>
-      <c r="B243">
-        <f>LEN(A243)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>241</v>
       </c>
-      <c r="B244">
-        <f>LEN(A244)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>242</v>
       </c>
-      <c r="B245">
-        <f>LEN(A245)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>243</v>
       </c>
-      <c r="B246">
-        <f>LEN(A246)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>244</v>
       </c>
-      <c r="B247">
-        <f>LEN(A247)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>245</v>
       </c>
-      <c r="B248">
-        <f>LEN(A248)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>246</v>
       </c>
-      <c r="B249">
-        <f>LEN(A249)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>247</v>
       </c>
-      <c r="B250">
-        <f>LEN(A250)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>248</v>
       </c>
-      <c r="B251">
-        <f>LEN(A251)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>249</v>
       </c>
-      <c r="B252">
-        <f>LEN(A252)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>250</v>
       </c>
-      <c r="B253">
-        <f>LEN(A253)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>251</v>
       </c>
-      <c r="B254">
-        <f>LEN(A254)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>252</v>
       </c>
-      <c r="B255">
-        <f>LEN(A255)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>253</v>
       </c>
-      <c r="B256">
-        <f>LEN(A256)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>254</v>
       </c>
-      <c r="B257">
-        <f>LEN(A257)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B258">
-        <f>LEN(A258)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>256</v>
       </c>
-      <c r="B259">
-        <f>LEN(A259)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>257</v>
       </c>
-      <c r="B260">
-        <f>LEN(A260)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>258</v>
       </c>
-      <c r="B261">
-        <f>LEN(A261)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>259</v>
       </c>
-      <c r="B262">
-        <f>LEN(A262)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>260</v>
       </c>
-      <c r="B263">
-        <f>LEN(A263)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>261</v>
       </c>
-      <c r="B264">
-        <f>LEN(A264)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>262</v>
       </c>
-      <c r="B265">
-        <f>LEN(A265)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>263</v>
       </c>
-      <c r="B266">
-        <f>LEN(A266)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>264</v>
       </c>
-      <c r="B267">
-        <f>LEN(A267)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>265</v>
       </c>
-      <c r="B268">
-        <f>LEN(A268)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>266</v>
       </c>
-      <c r="B269">
-        <f>LEN(A269)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>267</v>
       </c>
-      <c r="B270">
-        <f>LEN(A270)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>268</v>
       </c>
-      <c r="B271">
-        <f>LEN(A271)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>269</v>
       </c>
-      <c r="B272">
-        <f>LEN(A272)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>270</v>
       </c>
-      <c r="B273">
-        <f>LEN(A273)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>271</v>
       </c>
-      <c r="B274">
-        <f>LEN(A274)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>272</v>
       </c>
-      <c r="B275">
-        <f>LEN(A275)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>273</v>
       </c>
-      <c r="B276">
-        <f>LEN(A276)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>274</v>
       </c>
-      <c r="B277">
-        <f>LEN(A277)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>275</v>
       </c>
-      <c r="B278">
-        <f>LEN(A278)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>276</v>
       </c>
-      <c r="B279">
-        <f>LEN(A279)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>277</v>
       </c>
-      <c r="B280">
-        <f>LEN(A280)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>278</v>
       </c>
-      <c r="B281">
-        <f>LEN(A281)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>279</v>
       </c>
-      <c r="B282">
-        <f>LEN(A282)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>280</v>
       </c>
-      <c r="B283">
-        <f>LEN(A283)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>281</v>
       </c>
-      <c r="B284">
-        <f>LEN(A284)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>282</v>
       </c>
-      <c r="B285">
-        <f>LEN(A285)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>283</v>
       </c>
-      <c r="B286">
-        <f>LEN(A286)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>284</v>
       </c>
-      <c r="B287">
-        <f>LEN(A287)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>285</v>
       </c>
-      <c r="B288">
-        <f>LEN(A288)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>286</v>
       </c>
-      <c r="B289">
-        <f>LEN(A289)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>287</v>
       </c>
-      <c r="B290">
-        <f>LEN(A290)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>288</v>
       </c>
-      <c r="B291">
-        <f>LEN(A291)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>289</v>
       </c>
-      <c r="B292">
-        <f>LEN(A292)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>290</v>
       </c>
-      <c r="B293">
-        <f>LEN(A293)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>291</v>
       </c>
-      <c r="B294">
-        <f>LEN(A294)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>292</v>
       </c>
-      <c r="B295">
-        <f>LEN(A295)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>293</v>
       </c>
-      <c r="B296">
-        <f>LEN(A296)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>294</v>
       </c>
-      <c r="B297">
-        <f>LEN(A297)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>295</v>
       </c>
-      <c r="B298">
-        <f>LEN(A298)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>296</v>
       </c>
-      <c r="B299">
-        <f>LEN(A299)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>297</v>
       </c>
-      <c r="B300">
-        <f>LEN(A300)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>298</v>
       </c>
-      <c r="B301">
-        <f>LEN(A301)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>299</v>
       </c>
-      <c r="B302">
-        <f>LEN(A302)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>300</v>
       </c>
-      <c r="B303">
-        <f>LEN(A303)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>301</v>
       </c>
-      <c r="B304">
-        <f>LEN(A304)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>302</v>
       </c>
-      <c r="B305">
-        <f>LEN(A305)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>303</v>
       </c>
-      <c r="B306">
-        <f>LEN(A306)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>304</v>
       </c>
-      <c r="B307">
-        <f>LEN(A307)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>305</v>
       </c>
-      <c r="B308">
-        <f>LEN(A308)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>306</v>
       </c>
-      <c r="B309">
-        <f>LEN(A309)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>307</v>
       </c>
-      <c r="B310">
-        <f>LEN(A310)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>308</v>
       </c>
-      <c r="B311">
-        <f>LEN(A311)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>309</v>
       </c>
-      <c r="B312">
-        <f>LEN(A312)</f>
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B326">
-    <sortCondition ref="B2:B326"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
